--- a/biology/Zoologie/Étourneau/Étourneau.xlsx
+++ b/biology/Zoologie/Étourneau/Étourneau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tourneau</t>
+          <t>Étourneau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme étourneau est porté par plusieurs oiseaux de la famille des Sturnidae. Ce terme dérive du vieux français « estornel » dérivé lui-même du bas latin sturnellus. Le latin classique sturnus, dont ce terme est issu et qui désigne le même oiseau, dérive (probablement) de la racine indo-européenne stor qui correspond à « étoile », ce qui pourrait faire référence au plumage brun sombre ou noir constellé de blanc de la principale espèce européenne, l'étourneau sansonnet ; on rapproche également de cette interprétation le terme starling, nom anglais de l'étourneau (star = étoile)[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme étourneau est porté par plusieurs oiseaux de la famille des Sturnidae. Ce terme dérive du vieux français « estornel » dérivé lui-même du bas latin sturnellus. Le latin classique sturnus, dont ce terme est issu et qui désigne le même oiseau, dérive (probablement) de la racine indo-européenne stor qui correspond à « étoile », ce qui pourrait faire référence au plumage brun sombre ou noir constellé de blanc de la principale espèce européenne, l'étourneau sansonnet ; on rapproche également de cette interprétation le terme starling, nom anglais de l'étourneau (star = étoile),.
 Spodiopsar sericeus – Étourneau soyeux
 Spodiopsar cineraceus – Étourneau gris
 Gracupica nigricollis – Étourneau à cou noir
@@ -511,7 +523,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tourneau</t>
+          <t>Étourneau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -529,7 +541,9 @@
           <t>Incident</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un groupe d'étourneaux a percuté un vol Ryanair à Rome.
 </t>
